--- a/逆水寒数据.xlsx
+++ b/逆水寒数据.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11480" activeTab="4"/>
+    <workbookView windowWidth="21000" windowHeight="11480"/>
   </bookViews>
   <sheets>
-    <sheet name="妙音" sheetId="1" r:id="rId1"/>
-    <sheet name="绝技" sheetId="2" r:id="rId2"/>
-    <sheet name="内功" sheetId="3" r:id="rId3"/>
-    <sheet name="百家" sheetId="4" r:id="rId4"/>
-    <sheet name="素心" sheetId="5" r:id="rId5"/>
+    <sheet name="机制" sheetId="6" r:id="rId1"/>
+    <sheet name="职业技能" sheetId="1" r:id="rId2"/>
+    <sheet name="江湖技能" sheetId="2" r:id="rId3"/>
+    <sheet name="内功" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">机制!$D:$D</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +33,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>关联</t>
+  </si>
+  <si>
+    <t>关系类型</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>妙音__逐月·乘风</t>
+  </si>
+  <si>
+    <t>妙音__飞天</t>
+  </si>
+  <si>
+    <t>前置</t>
+  </si>
+  <si>
+    <t>妙音__飞天·莲心</t>
+  </si>
+  <si>
+    <t>替换技能</t>
+  </si>
+  <si>
+    <t>妙音__莲步盈华</t>
+  </si>
+  <si>
+    <t>妙音__莲步盈华·并蒂</t>
+  </si>
+  <si>
+    <t>互斥</t>
+  </si>
+  <si>
+    <t>共享时间</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -48,12 +89,21 @@
     <t>减伤</t>
   </si>
   <si>
+    <t>所属</t>
+  </si>
+  <si>
+    <t>专属ID</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>飞泉</t>
   </si>
   <si>
+    <t>妙音</t>
+  </si>
+  <si>
     <t>九霄落影</t>
   </si>
   <si>
@@ -93,9 +143,45 @@
     <t>莲步盈华·并蒂</t>
   </si>
   <si>
+    <t>山盟</t>
+  </si>
+  <si>
+    <t>素心</t>
+  </si>
+  <si>
+    <t>落霞</t>
+  </si>
+  <si>
+    <t>初绽</t>
+  </si>
+  <si>
+    <t>约定</t>
+  </si>
+  <si>
+    <t>风摇筝</t>
+  </si>
+  <si>
+    <t>彩翼</t>
+  </si>
+  <si>
+    <t>扶风</t>
+  </si>
+  <si>
     <t>净世莲华</t>
   </si>
   <si>
+    <t>绝技</t>
+  </si>
+  <si>
+    <t>揽雀尾</t>
+  </si>
+  <si>
+    <t>百家</t>
+  </si>
+  <si>
+    <t>凤绽朱华</t>
+  </si>
+  <si>
     <t>不动明王·灵韵</t>
   </si>
   <si>
@@ -115,12 +201,6 @@
   </si>
   <si>
     <t>纳百观·灵韵</t>
-  </si>
-  <si>
-    <t>揽雀尾</t>
-  </si>
-  <si>
-    <t>凤绽朱华</t>
   </si>
 </sst>
 </file>
@@ -736,9 +816,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1272,20 +1355,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="5.54545454545455" customWidth="1"/>
+    <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
+    <col min="4" max="4" width="5.54545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,238 +1382,438 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-      <c r="D7">
-        <v>4.5</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1.5</v>
-      </c>
-      <c r="D10">
-        <v>1.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>90</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
+      <formula1>职业技能!$G$2:$G$999</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"前置,窗口期,被动,共享冷却,替换技能,互斥,共享时间"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C1 A1" listDataValidation="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="6" width="5.54545454545455" customWidth="1"/>
+    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="5.54545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A2)," ",""),"　","")</f>
+        <v>妙音__飞泉</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1.7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G15" si="0">F3&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A3)," ",""),"　","")</f>
+        <v>妙音__九霄落影</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__水月吟</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__塞上曲</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__春霖</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__祈愿</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>240</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__比翼连枝</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__逐月</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__逐月·乘风</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__飞天</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__飞天·莲心</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__莲步盈华</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>妙音__莲步盈华·并蒂</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>素心__山盟</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1541,114 +1825,109 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A2)," ",""),"　","")</f>
+        <v>绝技__净世莲华</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
       </c>
       <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="str">
+        <f>F3&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A3)," ",""),"　","")</f>
+        <v>百家__揽雀尾</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>15</v>
+      <c r="D4">
+        <v>1.25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="G4" t="str">
+        <f>F4&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A4)," ",""),"　","")</f>
+        <v>百家__凤绽朱华</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"绝技,群侠,百家"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1657,99 +1936,110 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>3.5</v>
-      </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
     </row>

--- a/逆水寒数据.xlsx
+++ b/逆水寒数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11480"/>
+    <workbookView windowWidth="21000" windowHeight="11480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>技能</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>逐月·乘风</t>
-  </si>
-  <si>
-    <t>被动</t>
   </si>
   <si>
     <t>飞天</t>
@@ -1357,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1465,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1657,7 +1654,7 @@
         <v>妙音__逐月</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1674,13 +1671,10 @@
         <f t="shared" si="0"/>
         <v>妙音__逐月·乘风</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -1702,9 +1696,9 @@
         <v>妙音__飞天</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1719,13 +1713,10 @@
         <f t="shared" si="0"/>
         <v>妙音__飞天·莲心</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>90</v>
@@ -1749,7 +1740,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -1773,10 +1764,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1785,35 +1776,50 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>43</v>
+      <c r="F21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1834,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1870,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="str">
         <f>F2&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A2)," ",""),"　","")</f>
@@ -1879,7 +1885,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -1894,7 +1900,7 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="str">
         <f>F3&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A3)," ",""),"　","")</f>
@@ -1903,7 +1909,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -1915,7 +1921,7 @@
         <v>1.25</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="str">
         <f>F4&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A4)," ",""),"　","")</f>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1995,12 +2001,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2012,12 +2018,12 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>8</v>

--- a/逆水寒数据.xlsx
+++ b/逆水寒数据.xlsx
@@ -1442,17 +1442,17 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A1:$XFD1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
-      <formula1>职业技能!$G$2:$G$999</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"前置,窗口期,被动,共享冷却,替换技能,互斥,共享时间"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
+      <formula1>职业技能!$G$2:$G$999</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 A1" listDataValidation="1"/>
+    <ignoredError sqref="A1 C1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1774,52 +1774,76 @@
         <v>素心__山盟</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G21" si="1">F16&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A16)," ",""),"　","")</f>
+        <v>素心__落霞</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>素心__初绽</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>素心__约定</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>素心__风摇筝</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>素心__彩翼</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>素心__扶风</v>
       </c>
     </row>
   </sheetData>

--- a/逆水寒数据.xlsx
+++ b/逆水寒数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11480" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>技能</t>
   </si>
@@ -164,6 +164,12 @@
     <t>扶风</t>
   </si>
   <si>
+    <t>清风</t>
+  </si>
+  <si>
+    <t>黯然</t>
+  </si>
+  <si>
     <t>净世莲华</t>
   </si>
   <si>
@@ -177,6 +183,24 @@
   </si>
   <si>
     <t>凤绽朱华</t>
+  </si>
+  <si>
+    <t>揽芳相携·无敌</t>
+  </si>
+  <si>
+    <t>揽芳相携</t>
+  </si>
+  <si>
+    <t>拳撼山岳</t>
+  </si>
+  <si>
+    <t>群侠</t>
+  </si>
+  <si>
+    <t>流月无痕</t>
+  </si>
+  <si>
+    <t>云影濯香</t>
   </si>
   <si>
     <t>不动明王·灵韵</t>
@@ -1452,7 +1476,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 C1" listDataValidation="1"/>
+    <ignoredError sqref="C1 A1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1460,10 +1484,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1766,6 +1790,12 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -1778,6 +1808,12 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
@@ -1790,6 +1826,9 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
@@ -1802,6 +1841,15 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
@@ -1814,6 +1862,15 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -1826,6 +1883,12 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
@@ -1838,12 +1901,57 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>素心__扶风</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="str">
+        <f>F22&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A22)," ",""),"　","")</f>
+        <v>素心__清风</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="str">
+        <f>F23&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A23)," ",""),"　","")</f>
+        <v>素心__黯然</v>
       </c>
     </row>
   </sheetData>
@@ -1855,13 +1963,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1888,7 +1996,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1900,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" t="str">
         <f>F2&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A2)," ",""),"　","")</f>
@@ -1909,7 +2017,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -1924,7 +2032,7 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" t="str">
         <f>F3&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A3)," ",""),"　","")</f>
@@ -1933,7 +2041,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -1945,11 +2053,122 @@
         <v>1.25</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" t="str">
         <f>F4&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A4)," ",""),"　","")</f>
         <v>百家__凤绽朱华</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7.2</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="str">
+        <f>F5&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A5)," ",""),"　","")</f>
+        <v>百家__揽芳相携·无敌</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="str">
+        <f>F6&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A6)," ",""),"　","")</f>
+        <v>百家__揽芳相携</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="str">
+        <f>F7&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A7)," ",""),"　","")</f>
+        <v>群侠__拳撼山岳</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1.6</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="str">
+        <f>F8&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A8)," ",""),"　","")</f>
+        <v>群侠__流月无痕</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>2.2</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="str">
+        <f>F9&amp;"__"&amp;SUBSTITUTE(SUBSTITUTE(TRIM(A9)," ",""),"　","")</f>
+        <v>群侠__云影濯香</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2215,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -2013,7 +2232,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -2025,12 +2244,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2042,12 +2261,12 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2061,7 +2280,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>8</v>
